--- a/Buoi7/data.xlsx
+++ b/Buoi7/data.xlsx
@@ -427,12 +427,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://dl256.dlmate24.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1ZqWkFmbGxVQklPNXRnb05rNSt6bEFKb0tESVpFNDRLM1ZQc0ZzQno1TlBHdlBrU1I4N3QxQjFMUTlKMHdzREhIdUpobGZKZzBkRFM5dXJQb2xUNTR3aFgwTlozdVFmMFBQREpZOVFWQmcyTzJuYlQybTFDaGwzT3E3RjdHU1hWUGtCbE9IS2FiODlwdGhDenBUYks4OGRzVnBXTzZzOTlyKzdXODVSVzl3Yk4xdTVsUUR3RldVdFY4aklxKzJQbUpnQlpjb3JoWit4aTk0dmF1UTcxbVdZZktkekE3Tm1jcXVxck9EQlVXOEhST29EeXV1S0kxdWlZUGVLeHcxM0sxN2ZxMEkyMitaODNqVzRTR0w2M3ZnTWpwdHJ3em1SaUU5TVhlenBkQmdnM3BTOGZ5RFp4RG9Gb2lyNXlUN2RrSnpGNnMyd0VsbXVFSyswYjFlVVFDV0lKMElIZ0JHTjRXT0NvTnBNUGwxclV6d3AxRlVWenI0cWdPZGZzQ3JwL2IvcjBTeGplOTVOYzFQZ3Y2NlhDQ1ZMRHVkMFpPZ204ZVF3K01GWElWajFJbmN3enNrc014eW1lbVU3OERZenBWa0Rxc1J4S0xBYkl5SXZUU3pZWGVNSHVENlpGRW1NOWtEUmxYbXV5TzRVWU9sOGFPL2x6cHlvTT0%3D</t>
+          <t>https://dl256.dlmate41.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1ZqWkFmbGxVQklPNXRnb05rNSt6bEFKb0tESVpFNDRLM1ZQc0ZzQno1TlBHdlBrU1I4N3QxQjFMUTlKMHdzREhIdUpobGZKZzBkRFM5dXJQb2xUNTR3aFgwTlozdVFmMFBQREpZOVFWQmcyTzJuYlQybTFDaGwzT3E3RjdHU1hWUGtCbE9IS2FiODlwdGhDenBUYks4OGRzVnBXTzZzOTlyKzdXODVSVzl3Yk4xdTVsUUR3RldVdFY4aklxKzJQbUpnQlpjb3JoWit4aTk0dmF1UTcxbVdZZktkekE3Tm1jcXVxck9EQlVXOEhST29EeXV1S0kxdWlZUGVLeHcxM0sxN2ZxMEkyMitaODNqVzRTR0w2M3ZnTWpwdHJ3em1SaUU5TVhlenBkQmdnM3BTOGZ5RFp4RG9Gb2lyNXlUN2RrSnpGNnMyd0VsbXVFSyswYjFlVVFDV0lKMElIZ0JHTjRXT0NvTnBNUGwxclV6d3AxRlVWenI0cWdPZGZzQ3JwL2IvcjBTeGplOTVOYzFQZ3Y2NlhDQ1ZMRHVkMFpPZ204ZVF3K01GWElWajFJbmN3enNrc014eW1lbVU3OERZenBWa0Rxc1J4S0xBYkl5SXZUU3pZVGJNSCtGN1pGRW1NOWtEUmxYbXV5TzRVWU9sOGFPL2x6cHlvTT0%3D</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C:/Users/asus/Desktop/HOC/Github/HocToolPython/Buoi7/Video/video1.mp4</t>
+          <t>./Video/video1.mp4</t>
         </is>
       </c>
     </row>
@@ -444,12 +444,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://dl111.dlmate11.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1Fpc0FqakJKbUpQb0poS3hxOXNLMGFJeHNldUpXbk0rSFFKdDIxM3VCSU5uQUpFcXE0TjBFRWpha3BwTWZtM3J1b0lBbkVzSjVFeldyM3NUM21EWTlpZyt3VzRtSU41a1RUQ0pyNkVnbThIWFc3YUhhc1Y3enVqaUk5Z2loVG1GUzRUWkFLZWZSdW9ZRHdTenVQckxHOHRVbmkyMmM2dDlxaWJXODdReTl3UGNkNjVsWENrcHpPSkZUa283bm10V2Q0R1U3eGNFNDFFcnZ2ZXJqSmNod1B2WGJXbUUxSDNNSDd0QytERU5PMzJzVDZEajQ4S1lwNjE4WmNMUjl0U2ZtMyt2bWN5dU5mTWV6SGJlSk9yejQ5T09zcDZ0SHBoUE1wL2ZDMHBsUG0wUHFBOXp0VThnM3MwNDNucWVNN1BNaTExbTMzVEFSaXU4SHczVC9mMDB0Y1o5S0xYOHdMTVVTQ2hFTXVjemQ4SmtvK0tCUFprbnUzTDgrZWYwQ3JKRDAxYWdVeVNtOTVOY3ZQd0xDM2s3VVY5MnFaVnhjL3lSaVpXbUZUaDFVa1Fkbk53VG1oNWdxKzB6dkM1RTlMQzFJbERxelIxdlRXdVU1Si9EWXpZVFVMajdmb2RJS3c0VTBCQkZjbXV1Wm9BWUF3c1BMOFE9PQ%3D%3D</t>
+          <t>https://dl111.dlmate19.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1Fpc0FqakJKbUpQb0poS3hxOXNLMGFJeHNldUpXbk0rSFFKdDIxM3VCSU5uQUpFcXE0TjBFRWpha3BwTWZtM3J1b0lBbkVzSjVFeldyM3NUM21EWTlpZyt3VzRtSU41a1RUQ0pyNkVnbThIWFc3YUhhc1Y3enVqaUk5Z2loVG1GUzRUWkFLZWZSdW9ZRHdTenVQckxHOHRVbmkyMmM2dDlxaWJXODdReTl3UGNkNjVsWENrcHpPSkZUa283bm10V2Q0R1U3eGNFNDFFcnZ2ZXJqSmNod1B2WGJXbUUxSDNNSDd0QytERU5PMzJzVDZEajQ4S1lwNjE4WmNMUjl0U2ZtMyt2bWN5dU5mTWV6SGJlSk9yejQ5T09zcDZ0SHBoUE1wL2ZDMHBsUG0wUHFBOXp0VThnM3MwNDNucWVNN1BNaTExbTMzVEFSaXU4SHczVC9mMDB0Y1o5S0xYOHdMTVVTQ2hFTXVjemQ4SmtvK0tCUFprbnUzTDgrZWYwQ3JKRDAxYWdVeVNtOTVOY3ZQd0xDM2s3VVY5MnFaVnhjL3lSaVpXbUZUaDFVa1Fkbk53VG1oNWdxKzB6dkM1RTlMQzFJbERxelIxdlRXdVU1SnZYWXlZWGVMajdmb2RJS3c0VTBCQkZjbXV1Wm9BWUF3c1BMOFE9PQ%3D%3D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C:/Users/asus/Desktop/HOC/Github/HocToolPython/Buoi7/Video/video2.mp4</t>
+          <t>./Video/video2.mp4</t>
         </is>
       </c>
     </row>
@@ -461,12 +461,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://dl107.dlmate05.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1gzZlpwZ2pGeUQ2d0g5OXQ0bk5DUUMrcGlaYVJLN3Rubk00MGZwRzZQSUp1SU1VU0U4NzEzQjFHZ3N2Y2J1blRzM0xnSmZaZ29IUUxxM3NYdzB4QlhoMHpoTy8yY1VKcDBLQzR1clVjb3dHTzJuYlQybTFDaDRqYjg4eDdiSnljTCtUaE9HS1NWMDcwTjlEN0tKUFNoOXNGQWp3ZmF3OGtDMUxXKzRrVFVrL2NiNlpsWGZBRXRVWk5paU1xdGorQ0NxRmROeHA4VjFraWJ1ZU95RHNOd1RvT0hkaUprS3lBTXJMM0pVUXRLaW5jNCt5bnMwTFozNDJFZGRPNTI1Mi8vdExuNlp6R2ZRWk9nR0s2UU91QytxL3I2N2NZdzd4YVFtZURHbzVkQmxUZWtSOTcyUXU1WjZIQTNzNmFOMnRnNXpGR0d5UUFsMDdSYW5IVC9kbk0rVzVaMElIWXdLZGtZQkJFdWpkaTN3NG9LcmJjVlYzT3lzK1JoWjdRd3ZjcU54cjhVbWhpc3R0b2lJQVhYNUdXRlVZcWpEVE10NUdJQkFtNkRRQXRYMWhCeVBoYTIxY1V1bVRyd1NKbzdlQ3hiMFdBPQ%3D%3D</t>
+          <t>https://dl107.dlmate40.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1gzZlpwZ2pGeUQ2d0g5OXQ0bk5DUUMrcGlaYVJLN3Rubk00MGZwRzZQSUp1SU1VU0U4NzEzQjFHZ3N2Y2J1blRzM0xnSmZaZ29IUUxxM3NYdzB4QlhoMHpoTy8yY1VKcDBLQzR1clVjb3dHTzJuYlQybTFDaDRqYjg4eDdiSnljTCtUaE9HS1NWMDcwTjlEN0tKUFNoOXNGQWp3ZmF3OGtDMUxXKzRrVFVrL2NiNlpsWGZBRXRVWk5paU1xdGorQ0NxRmROeHA4VjFraWJ1ZU95RHNOd1RvT0hkaUprS3lBTXJMM0pVUXRLaW5jNCt5bnMwTFozNDJFZGRPNTI1Mi8vdExuNlp6R2ZRWk9nR0s2UU91QytxL3I2N2NZdzd4YVFtZURHbzVkQmxUZWtSOTcyUXU1WjZIQTNzNmFOMnRnNXpGR0d5UUFsMDdSYW5IVC9kbk0rVzVaMElIWXdLZGtZQkJFdWpkaTN3NG9LcmJjVlYzT3lzK1JoWjdRd3ZjcU54cjhVbWhpc3R0b2lJQVhYNUdXRlVZcWpEVE10NUdNRUFtcUFSUXRYMWhCeVBoYTIxY1V1bVRyd1NKbzdlQ3hiMFdBPQ%3D%3D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C:/Users/asus/Desktop/HOC/Github/HocToolPython/Buoi7/Video/video3.mp4</t>
+          <t>./Video/video3.mp4</t>
         </is>
       </c>
     </row>
@@ -478,12 +478,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://dl98.dlmate40.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1Fpc0FqakJKbUpQb0poS3hxOXNLMGFNSUtDL1pLNzZ2bk0vd2Y4WHY3SjVXcFlFcXE0TjBIRTMyR3ZNSjRtbXlLMHFvdVVZSlNlU0RSdjdmNjNUWi96Q0trTy9yc1VKcHdlVHgxcEFWQWhXT3huTFR4NkZEYWtUajBnMFRJYjJFcDVINHBiYkQxb05wcTl5eVNUZWV2eDlVbS9tTytzcE1DeWJXNDVVVFU0dmNmNjlKS0R4UXNJNEFUMUlxaG1mYkZxVUlta0pnSTBoRGgrOFMvQ1lzaENhZWJQR1ZXTXpKZHJMM0pXVjVNNlR4TTlXMnE4K0VtNFcxQ1BPdGgrbmV0eHZEb2NnQ1RlLzN5V3A2S0xkZXByOHZ4M2ZwdXFVakZtYktlbzUxSmt4eVlScy9xU2RnM3Nsb3NzWnlYNU1VSjBWZTM1U0VUbHJrYi9HK3NmVndJY2NZYmV5Y2ZhY0VIVTJnZnJzSy8zNGg2K0lkY1oxN205N1U4Y3Fkcys4eWRsZWhEa1huVXRzd3pLZ21Zc0NYVUNkK3VEVEU1b1NBT1NTNkdSZz09</t>
+          <t>https://dl98.dlmate29.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1Fpc0FqakJKbUpQb0poS3hxOXNLMGFNSUtDL1pLNzZ2bk0vd2Y4WHY3SjVXcFlFcXE0TjBIRTMyR3ZNSjRtbXlLMHFvdVVZSlNlU0RSdjdmNjNUWi96Q0trTy9yc1VKcHdlVHgxcEFWQWhXT3huTFR4NkZEYWtUajBnMFRJYjJFcDVINHBiYkQxb05wcTl5eVNUZWV2eDlVbS9tTytzcE1DeWJXNDVVVFU0dmNmNjlKS0R4UXNJNEFUMUlxaG1mYkZxVUlta0pnSTBoRGgrOFMvQ1lzaENhZWJQR1ZXTXpKZHJMM0pXVjVNNlR4TTlXMnE4K0VtNFcxQ1BPdGgrbmV0eHZEb2NnQ1RlLzN5V3A2S0xkZXByOHZ4M2ZwdXFVakZtYktlbzUxSmt4eVlScy9xU2RnM3Nsb3NzWnlYNU1VSjBWZTM1U0VUbHJrYi9HK3NmVndJY2NZYmV5Y2ZhY0VIVTJnZnJzSy8zNGg2K0lkY1oxN205N1U4Y3Fkcys4eWRsTzFEbFhqVnRzd3pLZ21Zc0NYVUNkK3VEVEU1b1NBT1NTNkdSZz09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C:/Users/asus/Desktop/HOC/Github/HocToolPython/Buoi7/Video/video4.mp4</t>
+          <t>./Video/video4.mp4</t>
         </is>
       </c>
     </row>
@@ -495,12 +495,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://dl28.dlmate38.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1FxUDBaNmxzdVJJZ2E0NjkvMXErME1ZeHFmK0l0N00rRE45QlR2aXJLTlBYYWRTMnI4OEVDU3ppSnN2VnIvQjZlL2NWeEVzNTRFek9wM3NTQjAyaFN3Z0N3WFl1SU5PcFBKbmw4NW1VeWxnU3lpZER3cVY3MnUzVG9naHpHVGdaUDZtb2VkdnVWMHNrTjlEakNVS2EwaThBVjR5dVB0dHhQMC95WWl4SDMxN3BqL1k1VFIwdGhaNFZmM04rbitmM2M4UUpMcHNsWmlHdTkrKytuRXB0N0g2cVRNbm83S2pJQjZ1TFFVUTRmOERFTStXSzV5YnMzNFdrMmVhOTcxek9ML3Z2bVdUaVpaLzM0U0pDVUZlYTFyOERzM2ZkdXRuNlJuL0xrcXE1S255Q1NjZmV1Rm9sWW9RRXVzZmZGNHNrNW4yQ1huQW9Da3VrYndWLzFla2xnSDhFWmRTTmRmNXBQVm1nTG90Zm50UFJscmMwWk94MnhwYThuS3Vrci9zdz0%3D</t>
+          <t>https://dl28.dlmate12.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1FxUDBaNmxzdVJJZ2E0NjkvMXErME1ZeHFmK0l0N00rRE45QlR2aXJLTlBYYWRTMnI4OEVDU3ppSnN2VnIvQjZlL2NWeEVzNTRFek9wM3NTQjAyaFN3Z0N3WFl1SU5PcFBKbmw4NW1VeWxnU3lpZER3cVY3MnUzVG9naHpHVGdaUDZtb2VkdnVWMHNrTjlEakNVS2EwaThBVjR5dVB0dHhQMC95WWl4SDMxN3BqL1k1VFIwdGhaNFZmM04rbitmM2M4UUpMcHNsWmlHdTkrKytuRXB0N0g2cVRNbm83S2pJQjZ1TFFVUTRmOERFTStXSzV5YnMzNFdrMmVhOTcxek9ML3Z2bVdUaVpaLzM0U0pDVUZlYTFyOERzM2ZkdXRuNlJuL0xrcXE1S255Q1NjZmV1Rm9sWW9RRXVzZmZGNHNrNW4yQ1huQW9Da3VrYndWLzFla2xnSDhFWmRTSllmNTVBVW1nTG90Zm50UFJscmMwWk94MnhwYThuS3Vrci9zdz0%3D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C:/Users/asus/Desktop/HOC/Github/HocToolPython/Buoi7/Video/video5.mp4</t>
+          <t>./Video/video5.mp4</t>
         </is>
       </c>
     </row>
@@ -512,12 +512,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://dl118.dlmate13.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ0czZkJyZ2pJQlJQSVY3YlJrdzZHRmNveHREK0l0NjhHZ1ZQMEhzQitKY3B1Zk9RSEN2WkF6V3pha3BwTWZtSHJ0MVlCcldveFNCVlBaeXVubzB4SWl6RjZrZDUzb1JQMTBUeklqOGxVb3h6VFc2YUNSbXplOTYxL21oR0sxUlFCYjYzQUplTkNCdEwxcGtFdWFZZkN2eDVnUTZBUE9wN2hybjZuTXQwcjl5L2NkNjVsVUQwcHpPSU5VMTVMS2pxQ1U5VmRYallsSW5FdXRwZWVaRnA4aEZQamJLeEZwTVRjZC9PM3FHVWs0d2pWS3ZUNlk5ZXAzeUhsYmZLRmg3U3kzOXYraUszU2FjZjN2Y0lXQkZlcThwZnJ0Ni9kZXRFblV2K2JKbzVsQm1UZWpRYzNxZWNVYXVIQWdycldLNGZObm0ybTcyd0VkdmZRQjBVVC9TRWMxVDVsTUhHUUdLY1FvS1hwSnFOZmEzSUVmOTVoelB4eTdzNngvZXVwcDY1bk96dWN0NldpSDZNOHpJZ25SNkh5SkFkNm9Eak1yNEc0RkFtQ1RCVVJlMmxja054dXkwYzh2blNTNkdOUStNMndk</t>
+          <t>https://dl118.dlmate04.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ0czZkJyZ2pJQlJQSVY3YlJrdzZHRmNveHREK0l0NjhHZ1ZQMEhzQitKY3B1Zk9RSEN2WkF6V3pha3BwTWZtSHJ0MVlCcldveFNCVlBaeXVubzB4SWl6RjZrZDUzb1JQMTBUeklqOGxVb3h6VFc2YUNSbXplOTYxL21oR0sxUlFCYjYzQUplTkNCdEwxcGtFdWFZZkN2eDVnUTZBUE9wN2hybjZuTXQwcjl5L2NkNjVsVUQwcHpPSU5VMTVMS2pxQ1U5VmRYallsSW5FdXRwZWVaRnA4aEZQamJLeEZwTVRjZC9PM3FHVWs0d2pWS3ZUNlk5ZXAzeUhsYmZLRmg3U3kzOXYraUszU2FjZjN2Y0lXQkZlcThwZnJ0Ni9kZXRFblV2K2JKbzVsQm1UZWpRYzNxZWNVYXVIQWdycldLNGZObm0ybTcyd0VkdmZRQjBVVC9TRWMxVDVsTUhHUUdLY1FvS1hwSnFOZmEzSUVmOTVoelB4eTdzNngvZXVwcDY1bk96dWN0NldpSDZNOHpJZ25SNkh5SkFkNm9Eak1xNVc0QkEyaVRCVVJlMmxja054dXkwYzh2blNTNkdOUStNMndk</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C:/Users/asus/Desktop/HOC/Github/HocToolPython/Buoi7/Video/video6.mp4</t>
+          <t>./Video/video6.mp4</t>
         </is>
       </c>
     </row>
@@ -529,12 +529,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://dl65.dlmate11.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1FxUDBaNmxzZ1JJZ2Y0Njk3MmVQcklZeHFmK0l0NzgvN1FKVlhzQjJMTlBIYU0wVE1sY3hqR3lLSXN2TnMvQjN0dHRaelZJSTBkVUM5dWJhMjNTVi96Q1NtTy9uc0cvTk9LRlFvNW1FNngyMmR5L25kL0RDcDlsK1A0aFhVWVc4cG5RMGlHYVNKdXB4QTJpTGZLdFMzbHJGVnBHMkhwNzhZbjlLODhTUFFpTEUyL2Zra0cyWldOc2w3a3BLdy9LT0poQmNYaDZaTmloWDB1YXlyRnNwekdxeVNmQWhnUHpZQnRLcTllZ0lSMmpFTCttbjdwSWtvL2pSTUk0WXRyVENTNEtEa1p5dWRNTUg1UXRySllmeXRyc2IwM2ZwdXNVYitwT3o0bjV0RHFReXVUY1hBVThRM3BVWW1yNXliNE5nSnpGR3gwd29YdmVNRzBrTDRTQjFrY1pSRExFZ2JKc1VvSHlzbnFNWHQxcTQ5ODVoelpuN2l1ck1kZXFrT2c3ZjBrT3BEbHo3TS9jOXVkZ3ZBN2l5NmNzbjdSSFYyb0ROSFV6WFFTeHdTalZ3ak1ScTMyODh4M211ekM5UitjR2tWMTJUbUZFQ1JHdXA4WmZvPQ%3D%3D</t>
+          <t>https://dl65.dlmate10.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1FxUDBaNmxzZ1JJZ2Y0Njk3MmVQcklZeHFmK0l0NzgvN1FKVlhzQjJMTlBIYU0wVE1sY3hqR3lLSXN2TnMvQjN0dHRaelZJSTBkVUM5dWJhMjNTVi96Q1NtTy9uc0cvTk9LRlFvNW1FNngyMmR5L25kL0RDcDlsK1A0aFhVWVc4cG5RMGlHYVNKdXB4QTJpTGZLdFMzbHJGVnBHMkhwNzhZbjlLODhTUFFpTEUyL2Zra0cyWldOc2w3a3BLdy9LT0poQmNYaDZaTmloWDB1YXlyRnNwekdxeVNmQWhnUHpZQnRLcTllZ0lSMmpFTCttbjdwSWtvL2pSTUk0WXRyVENTNEtEa1p5dWRNTUg1UXRySllmeXRyc2IwM2ZwdXNVYitwT3o0bjV0RHFReXVUY1hBVThRM3BVWW1yNXliNE5nSnpGR3gwd29YdmVNRzBrTDRTQjFrY1pSRExFZ2JKc1VvSHlzbnFNWHQxcTQ5ODVoelpuN2l1ck1kZXFrT2c3ZjBrT3BEbHo3TS9jOXVkZ3ZBN2l5NmNzbjdSSFYyb0ROSFV6WFFTeHdTalZ3aU5CcXkwc1l4M211ekM5UitjR2tWMTJUbUZFQ1JHdXA4WmZvPQ%3D%3D</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C:/Users/asus/Desktop/HOC/Github/HocToolPython/Buoi7/Video/video7.mp4</t>
+          <t>./Video/video7.mp4</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://dl210.dlmate33.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ0ptZHM5akJKbUl2Z0poOTBobk9Pb1p1d2VhNFV1aUtpRVdwdDNvWHVCSUpXdVlVcXJsOTBFWkgzSzQ1TVk2SHJ0MHNzQmZjYzZWVlBkeXFPQnRIUXYzQW55TmRXSU1Pa1RUMVUrK21ScW1DV2JpZFNGL0RmYTlsejY3RU9MS1FkWjl4cGJkdWZSdW9jTjlqcU9UcTd3bUo0Q3BTL2F4OHNNK05MWTdGYjdpUGNiNlpsWGZBRXRWZHRwMGQvUWpyWHVod0k0MTlKWitSbmg4TExqSTg5d1BvZmJXRzV6QVhOWnNiLy9FaFlPbTJNWThXQzd5YjhrK21oVU5QSlQ4VzJoN2VmclkzcktXTS9tRzlUV0RMRDQ5T1Bnc1BSZ3EwU1BwZXpLMTljTG13bXBUL2Y5Ujk4M3RrY21ucWVHNi9NaXcxaUcyUUFVaGQ4RXkwTERkRVFvY1psRElrZ2RKdk1QQWpvbnBjcnE0S014d3BCemVrVDIzTGdrZE1VQ3JKM0J6WU1xd3d1cjNlQnJZRlNWOFQrQlROdTRXMkJ3N3dCOUhEM05Ca1JXMmg1K2JrZTgwOEVsbXpiN1Z0NTljM2xlaVNtN0gxVFNXdUE4SS9YUjNjS2FOVDdBNklVPQ%3D%3D</t>
+          <t>https://dl210.dlmate46.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ0ptZHM5akJKbUl2Z0poOTBobk9Pb1p1d2VhNFV1aUtpRVdwdDNvWHVCSUpXdVlVcXJsOTBFWkgzSzQ1TVk2SHJ0MHNzQmZjYzZWVlBkeXFPQnRIUXYzQW55TmRXSU1Pa1RUMVUrK21ScW1DV2JpZFNGL0RmYTlsejY3RU9MS1FkWjl4cGJkdWZSdW9jTjlqcU9UcTd3bUo0Q3BTL2F4OHNNK05MWTdGYjdpUGNiNlpsWGZBRXRWZHRwMGQvUWpyWHVod0k0MTlKWitSbmg4TExqSTg5d1BvZmJXRzV6QVhOWnNiLy9FaFlPbTJNWThXQzd5YjhrK21oVU5QSlQ4VzJoN2VmclkzcktXTS9tRzlUV0RMRDQ5T1Bnc1BSZ3EwU1BwZXpLMTljTG13bXBUL2Y5Ujk4M3RrY21ucWVHNi9NaXcxaUcyUUFVaGQ4RXkwTERkRVFvY1psRElrZ2RKdk1QQWpvbnBjcnE0S014d3BCemVrVDIzTGdrZE1VQ3JKM0J6WU1xd3d1cjNlQnJZRlNWOFQrQlROdTRXMkJ3N3dCOUhEM05Ca1JXMmg1K2JrZTgwOEVsbXpmK1Z0cDRkbmxlaVNtN0gxVFNXdUE4SS9YUjNjS2FOVDdBNklVPQ%3D%3D</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C:/Users/asus/Desktop/HOC/Github/HocToolPython/Buoi7/Video/video8.mp4</t>
+          <t>./Video/video8.mp4</t>
         </is>
       </c>
     </row>
@@ -563,12 +563,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://dl155.dlmate35.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1FxUDBaNmxzekNhUkNvY1k3a3NIeFp1dHRhLzhwek1IMld0VmM0SFhJZVpXdVlVcXJsTjEvRXppWHN2TnMvQjN0dHRjQ1VJSjJFek9wM3NTQzB4QWhoMHlrTG9pZFJmTlNLRlFvNW1FeDNXM1c2YUNSbXplOTZsdm10MFhHVDNKUGtHdE9HS1NWMDcwTmpFM0ZhTHkxZ05zVXVHTzZzOTlyKzdXOGtBKzlrdUlCNll3dERsUTZmb0FKbjV6ODAvWHp0VVlOaU1SWmlHdTlwdmV5RTV3d1dmZTRkQ2NrZTNBdnNhcTllZ0pNd2lRSy9TSzkrYUp1b3lzZFlhaDI1VjJrOGYzbllRQ01jY1BKRzY2UEl2MkN0czMyM2U5dXRuN0dwKzM0emNvUXhsaVlUTW54ZWQ0M29VYzJycTJFMnAxbC9VZXMyd0VsMDdBMmsxeXBUeFZzQTVwamRtUXdkcHhQVno1V3B0MjJyNkU1OHNKNlFBcm0rNnc0WmY4cHBKUE9uT3RObFhqV29vZHRZVjZEOG5pV1dkS3REak1wNTJNSENuN0dBQkJYeVZndQ%3D%3D</t>
+          <t>https://dl155.dlmate50.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ1FxUDBaNmxzekNhUkNvY1k3a3NIeFp1dHRhLzhwek1IMld0VmM0SFhJZVpXdVlVcXJsTjEvRXppWHN2TnMvQjN0dHRjQ1VJSjJFek9wM3NTQzB4QWhoMHlrTG9pZFJmTlNLRlFvNW1FeDNXM1c2YUNSbXplOTZsdm10MFhHVDNKUGtHdE9HS1NWMDcwTmpFM0ZhTHkxZ05zVXVHTzZzOTlyKzdXOGtBKzlrdUlCNll3dERsUTZmb0FKbjV6ODAvWHp0VVlOaU1SWmlHdTlwdmV5RTV3d1dmZTRkQ2NrZTNBdnNhcTllZ0pNd2lRSy9TSzkrYUp1b3lzZFlhaDI1VjJrOGYzbllRQ01jY1BKRzY2UEl2MkN0czMyM2U5dXRuN0dwKzM0emNvUXhsaVlUTW54ZWQ0M29VYzJycTJFMnAxbC9VZXMyd0VsMDdBMmsxeXBUeFZzQTVwamRtUXdkcHhQVno1V3B0MjJyNkU1OHNKNlFBcm0rNnc0WmY4cHBKUE9uT3RObFhqWHA0ZHBaVldEOG5pV1dkS3REak1wNTJNSENuN0dBQkJYeVZndQ%3D%3D</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C:/Users/asus/Desktop/HOC/Github/HocToolPython/Buoi7/Video/video9.mp4</t>
+          <t>./Video/video9.mp4</t>
         </is>
       </c>
     </row>
@@ -580,12 +580,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://dl258.dlmate07.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ0ozZkJyZ2pJQlJQSVZzc1l0a3NIeFp1dHRhLzlZdzRMcEI5Y1IwRytkVS9MT2FGaUgvWXhqWVNYRTFZWjJ0emVLME4xbGVKdC9IUUs5dnJmbXRCQXpxRmI4TmZuRFhwOWZiSGw4NkZScmxnWEFpZE9BdHhLenNUaU85QWlpUFN0QnBqSk9IcWFWMEw1Rm5uK09TcWFoOGJGQWpBQ2NxWUpBMUx1K216ZmY1K05uODlnd2V4VXhVYklZZ2JqMjE3dmE0R0pJeGJzK24yenhsclAyWHM0bFVxaU9MWEYyTnk0TTF2L3VTQk5EaW5jNDRXT3I0cm9uNnlWYlY2MWx2Q2ZtMzZLc05CbUJMTS8zVzVUS0tlZXc3WWl5Ny9aMWdFUEVxT3Y0aXBORm1EZXpYZmZ4VHRBR2psc2lxSnlDNi9NeHkxZTMzVEFPaXU4SHczVCtka01DV3A1T0xrZ1pKczhvSHljV2xNN3QvNjg0d3M0VlVVanE0TFFPWWU4Qy9ydnM0K2tNL25pdTNmNEZZVnlkc1dIQ1VaK3FHbUo2dld0bGRIN1FEbDFOelE5amFrL2szOFlobnpUOVhORjZkMjhMa3pxa1IxdlJYZUUySlBmUXpKZWZmbkRGcllVUA%3D%3D</t>
+          <t>https://dl258.dlmate08.xyz/?file=M3R4SUNiN3JsOHJ6WWQ2a3NQS1Y5ZGlxVlZIOCtyZ0ozZkJyZ2pJQlJQSVZzc1l0a3NIeFp1dHRhLzlZdzRMcEI5Y1IwRytkVS9MT2FGaUgvWXhqWVNYRTFZWjJ0emVLME4xbGVKdC9IUUs5dnJmbXRCQXpxRmI4TmZuRFhwOWZiSGw4NkZScmxnWEFpZE9BdHhLenNUaU85QWlpUFN0QnBqSk9IcWFWMEw1Rm5uK09TcWFoOGJGQWpBQ2NxWUpBMUx1K216ZmY1K05uODlnd2V4VXhVYklZZ2JqMjE3dmE0R0pJeGJzK24yenhsclAyWHM0bFVxaU9MWEYyTnk0TTF2L3VTQk5EaW5jNDRXT3I0cm9uNnlWYlY2MWx2Q2ZtMzZLc05CbUJMTS8zVzVUS0tlZXc3WWl5Ny9aMWdFUEVxT3Y0aXBORm1EZXpYZmZ4VHRBR2psc2lxSnlDNi9NeHkxZTMzVEFPaXU4SHczVCtka01DV3A1T0xrZ1pKczhvSHljV2xNN3QvNjg0d3M0VlVVanE0TFFPWWU4Qy9ydnM0K2tNL25pdTNmNEZZVnlkc1dIQ1VaK3FHbUo2dld0bGRIN1FEbDFOelE5amFrL2szOFlobnpUOFdkRitjMllMa3pxa1IxdlJYZUUySlBmUXpKZWZmbkRGcllVUA%3D%3D</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C:/Users/asus/Desktop/HOC/Github/HocToolPython/Buoi7/Video/video10.mp4</t>
+          <t>./Video/video10.mp4</t>
         </is>
       </c>
     </row>
